--- a/Mid Tier Luxury/CPRI_MODEL.xlsx
+++ b/Mid Tier Luxury/CPRI_MODEL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Mid Tier Luxury\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB447660-089E-4323-A730-503F029745E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D35E99D-F9C7-4EF4-ACF4-98A3770146B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="183">
   <si>
     <t>Price</t>
   </si>
@@ -656,22 +656,31 @@
     <t>18×</t>
   </si>
   <si>
-    <t>3.3-3.4 billion guidance</t>
-  </si>
-  <si>
     <t>15 p/e at this price level</t>
   </si>
   <si>
-    <t>MK 2.75 to 2.85</t>
-  </si>
-  <si>
-    <t>Jimmy Choo 540 to 550 mill</t>
-  </si>
-  <si>
     <t>0.58 Price to Sales</t>
   </si>
   <si>
     <t>20.95×</t>
+  </si>
+  <si>
+    <t>Big Beat</t>
+  </si>
+  <si>
+    <t>3.375-3.45 billion guidance (increased guidance)</t>
+  </si>
+  <si>
+    <t>MK 2.8 to 2.875 (increased by 5mill)</t>
+  </si>
+  <si>
+    <t>Jimmy Choo 565 to 575 mill (increased by 15 mill)</t>
+  </si>
+  <si>
+    <t>Operating Margin in negative mid single digit range for JimmyChoo</t>
+  </si>
+  <si>
+    <t>Operating margin in high single digit range for Michael Kors</t>
   </si>
 </sst>
 </file>
@@ -946,7 +955,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1049,15 +1058,20 @@
     <xf numFmtId="8" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1501,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AX89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="AB53" sqref="AB53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1678,6 +1692,9 @@
       <c r="W3" s="45">
         <v>68</v>
       </c>
+      <c r="X3" s="45" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="4" spans="1:29" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
@@ -1747,6 +1764,9 @@
       <c r="W4" s="45">
         <v>79</v>
       </c>
+      <c r="X4" s="45" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:29" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42"/>
@@ -1816,6 +1836,9 @@
       <c r="W5" s="45">
         <v>61</v>
       </c>
+      <c r="X5" s="45" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="1:29" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="51"/>
@@ -1885,6 +1908,9 @@
       <c r="W6" s="55">
         <v>38</v>
       </c>
+      <c r="X6" s="55">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:29" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="51"/>
@@ -1954,6 +1980,9 @@
       <c r="W7" s="55">
         <v>63</v>
       </c>
+      <c r="X7" s="55">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:29" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="51"/>
@@ -2023,6 +2052,9 @@
       <c r="W8" s="55">
         <v>32</v>
       </c>
+      <c r="X8" s="55">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:29" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="61"/>
@@ -2092,6 +2124,9 @@
       <c r="W9" s="65">
         <v>455</v>
       </c>
+      <c r="X9" s="65">
+        <v>413</v>
+      </c>
     </row>
     <row r="10" spans="1:29" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="61"/>
@@ -2161,6 +2196,9 @@
       <c r="W10" s="65">
         <v>160</v>
       </c>
+      <c r="X10" s="65">
+        <v>150</v>
+      </c>
     </row>
     <row r="11" spans="1:29" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="61"/>
@@ -2229,6 +2267,9 @@
       </c>
       <c r="W11" s="65">
         <v>79</v>
+      </c>
+      <c r="X11" s="65">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
@@ -2339,7 +2380,7 @@
       </c>
       <c r="X13" s="78">
         <f>SUM(X14:X16)</f>
-        <v>771.59500000000003</v>
+        <v>797</v>
       </c>
       <c r="Y13" s="78">
         <f t="shared" ref="Y13:AA13" si="2">SUM(Y14:Y16)</f>
@@ -2355,10 +2396,10 @@
       </c>
       <c r="AC13" s="79">
         <f>SUM(X13:AA13)</f>
-        <v>3302.41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" s="43" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>3327.8150000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="43" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
         <v>92</v>
@@ -2426,7 +2467,7 @@
       <c r="W14" s="72">
         <v>208</v>
       </c>
-      <c r="X14" s="36">
+      <c r="X14" s="90">
         <v>0</v>
       </c>
       <c r="Y14" s="36">
@@ -2439,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="53" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="53" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="47"/>
       <c r="B15" s="47" t="s">
         <v>93</v>
@@ -2507,9 +2548,8 @@
       <c r="W15" s="73">
         <v>133</v>
       </c>
-      <c r="X15" s="48">
-        <f>T15 * 0.89</f>
-        <v>153.97</v>
+      <c r="X15" s="91">
+        <v>162</v>
       </c>
       <c r="Y15" s="48">
         <f>U15 * 0.9</f>
@@ -2525,10 +2565,10 @@
       </c>
       <c r="AC15" s="74">
         <f>SUM(X15:AA15)</f>
-        <v>542.7700000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" s="63" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>550.80000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="63" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
       <c r="B16" s="57" t="s">
         <v>94</v>
@@ -2596,9 +2636,8 @@
       <c r="W16" s="74">
         <v>694</v>
       </c>
-      <c r="X16" s="58">
-        <f>T16 * 0.915</f>
-        <v>617.625</v>
+      <c r="X16" s="92">
+        <v>635</v>
       </c>
       <c r="Y16" s="58">
         <f t="shared" ref="Y16:AA16" si="4">U16 * 0.915</f>
@@ -2614,10 +2653,10 @@
       </c>
       <c r="AC16" s="74">
         <f>SUM(X16:AA16)</f>
-        <v>2759.6400000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+        <v>2777.0150000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>38</v>
@@ -2684,6 +2723,9 @@
       </c>
       <c r="W17" s="13">
         <v>404</v>
+      </c>
+      <c r="X17" s="13">
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:24" s="75" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2708,7 +2750,7 @@
         <v>848</v>
       </c>
       <c r="G18" s="78">
-        <f t="shared" ref="G18:W18" si="9">G13 -G17</f>
+        <f t="shared" ref="G18:X18" si="9">G13 -G17</f>
         <v>737</v>
       </c>
       <c r="H18" s="78">
@@ -2775,7 +2817,10 @@
         <f t="shared" si="9"/>
         <v>631</v>
       </c>
-      <c r="X18" s="78"/>
+      <c r="X18" s="78">
+        <f t="shared" si="9"/>
+        <v>502</v>
+      </c>
     </row>
     <row r="19" spans="1:24" s="38" customFormat="1" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
@@ -2807,7 +2852,9 @@
       <c r="W19" s="36">
         <v>136</v>
       </c>
-      <c r="X19" s="41"/>
+      <c r="X19" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:24" s="50" customFormat="1" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
@@ -2839,7 +2886,9 @@
       <c r="W20" s="48">
         <v>88</v>
       </c>
-      <c r="X20" s="49"/>
+      <c r="X20" s="49">
+        <v>114</v>
+      </c>
     </row>
     <row r="21" spans="1:24" s="60" customFormat="1" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
@@ -2871,7 +2920,9 @@
       <c r="W21" s="58">
         <v>407</v>
       </c>
-      <c r="X21" s="59"/>
+      <c r="X21" s="59">
+        <v>388</v>
+      </c>
     </row>
     <row r="22" spans="1:24" s="17" customFormat="1" ht="15" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -2941,7 +2992,9 @@
       <c r="W22" s="17">
         <v>747</v>
       </c>
-      <c r="X22" s="7"/>
+      <c r="X22" s="7">
+        <v>486</v>
+      </c>
     </row>
     <row r="23" spans="1:24" s="45" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="42"/>
@@ -2973,7 +3026,9 @@
       <c r="W23" s="43">
         <v>136</v>
       </c>
-      <c r="X23" s="44"/>
+      <c r="X23" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:24" s="55" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
@@ -3005,7 +3060,9 @@
       <c r="W24" s="53">
         <v>91</v>
       </c>
-      <c r="X24" s="54"/>
+      <c r="X24" s="54">
+        <v>105</v>
+      </c>
     </row>
     <row r="25" spans="1:24" s="65" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="61"/>
@@ -3037,7 +3094,9 @@
       <c r="W25" s="63">
         <v>355</v>
       </c>
-      <c r="X25" s="64"/>
+      <c r="X25" s="64">
+        <v>307</v>
+      </c>
     </row>
     <row r="26" spans="1:24" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="77"/>
@@ -3061,7 +3120,7 @@
         <v>167</v>
       </c>
       <c r="G26" s="75">
-        <f t="shared" ref="G26:W26" si="11">G18-SUM(G22:G22)</f>
+        <f t="shared" ref="G26:X26" si="11">G18-SUM(G22:G22)</f>
         <v>-139</v>
       </c>
       <c r="H26" s="75">
@@ -3127,6 +3186,10 @@
       <c r="W26" s="75">
         <f t="shared" si="11"/>
         <v>-116</v>
+      </c>
+      <c r="X26" s="75">
+        <f t="shared" si="11"/>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:24" s="43" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -3266,6 +3329,9 @@
       <c r="W28" s="53">
         <v>-10</v>
       </c>
+      <c r="X28" s="53">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:24" s="63" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
@@ -3335,6 +3401,9 @@
       <c r="W29" s="63">
         <v>32</v>
       </c>
+      <c r="X29" s="63">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
@@ -3403,6 +3472,9 @@
       <c r="W30" s="13">
         <v>-102</v>
       </c>
+      <c r="X30" s="13">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
@@ -3471,6 +3543,9 @@
       <c r="W31" s="13">
         <v>542</v>
       </c>
+      <c r="X31" s="13">
+        <v>-16</v>
+      </c>
     </row>
     <row r="32" spans="1:24" s="75" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="76" t="s">
@@ -3560,6 +3635,10 @@
         <f>W30-W31</f>
         <v>-644</v>
       </c>
+      <c r="X32" s="75">
+        <f>X30-X31</f>
+        <v>56</v>
+      </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
@@ -3628,7 +3707,9 @@
       <c r="W33" s="13">
         <v>-5.44</v>
       </c>
-      <c r="X33" s="4"/>
+      <c r="X33" s="4">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
@@ -3697,6 +3778,9 @@
       <c r="W34" s="13">
         <v>-5.44</v>
       </c>
+      <c r="X34" s="13">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="36" spans="2:24" s="70" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B36" s="71" t="s">
@@ -3782,6 +3866,10 @@
         <f>(W16/S16)-1</f>
         <v>-0.15571776155717765</v>
       </c>
+      <c r="X36" s="70">
+        <f>(X16/T16)-1</f>
+        <v>-5.9259259259259234E-2</v>
+      </c>
     </row>
     <row r="37" spans="2:24" s="68" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B37" s="69" t="s">
@@ -3867,6 +3955,10 @@
         <f>(W15/S15) -1</f>
         <v>-2.9197080291970767E-2</v>
       </c>
+      <c r="X37" s="68">
+        <f>(X15/T15) -1</f>
+        <v>-6.3583815028901758E-2</v>
+      </c>
     </row>
     <row r="38" spans="2:24" s="66" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B38" s="67" t="s">
@@ -3952,6 +4044,9 @@
         <f>(W14/S14)-1</f>
         <v>-0.21212121212121215</v>
       </c>
+      <c r="X38" s="66" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
@@ -3974,7 +4069,7 @@
         <v>0.23579109062980042</v>
       </c>
       <c r="K39" s="15">
-        <f t="shared" ref="K39:W39" si="32">(K13/G13) - 1</f>
+        <f t="shared" ref="K39:X39" si="32">(K13/G13) - 1</f>
         <v>0.2464494569757727</v>
       </c>
       <c r="L39" s="15">
@@ -4025,7 +4120,10 @@
         <f t="shared" si="32"/>
         <v>-0.1537203597710548</v>
       </c>
-      <c r="X39" s="15"/>
+      <c r="X39" s="15">
+        <f t="shared" si="32"/>
+        <v>-0.25304592314901597</v>
+      </c>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
@@ -4063,7 +4161,7 @@
         <v>0.23769230769230765</v>
       </c>
       <c r="K40" s="15">
-        <f t="shared" ref="K40:W40" si="35" xml:space="preserve"> (K13/J13) - 1</f>
+        <f t="shared" ref="K40:X40" si="35" xml:space="preserve"> (K13/J13) - 1</f>
         <v>-7.2715972653822236E-2</v>
       </c>
       <c r="L40" s="15">
@@ -4114,7 +4212,10 @@
         <f t="shared" si="35"/>
         <v>-0.17922283901665348</v>
       </c>
-      <c r="X40" s="15"/>
+      <c r="X40" s="15">
+        <f t="shared" si="35"/>
+        <v>-0.22995169082125599</v>
+      </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
@@ -4285,7 +4386,9 @@
       <c r="W45" s="80">
         <v>0.61</v>
       </c>
-      <c r="X45" s="80"/>
+      <c r="X45" s="80">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
@@ -4374,6 +4477,9 @@
       <c r="W47" s="66">
         <v>-6.3E-2</v>
       </c>
+      <c r="X47" s="66" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="48" spans="2:24" s="68" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B48" s="69" t="s">
@@ -4442,6 +4548,9 @@
       <c r="W48" s="68">
         <v>-0.08</v>
       </c>
+      <c r="X48" s="68">
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="49" spans="2:33" s="70" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B49" s="71" t="s">
@@ -4510,6 +4619,9 @@
       <c r="W49" s="70">
         <v>4.5999999999999999E-2</v>
       </c>
+      <c r="X49" s="70">
+        <v>9.9000000000000005E-2</v>
+      </c>
     </row>
     <row r="50" spans="2:33" s="80" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="81" t="s">
@@ -4578,6 +4690,9 @@
       <c r="W50" s="80">
         <v>-0.112</v>
       </c>
+      <c r="X50" s="80">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="52" spans="2:33" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
@@ -4646,6 +4761,9 @@
       <c r="W52" s="17">
         <v>-161</v>
       </c>
+      <c r="X52" s="17">
+        <v>20</v>
+      </c>
     </row>
     <row r="53" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
@@ -4714,6 +4832,9 @@
       <c r="W53" s="13">
         <v>27</v>
       </c>
+      <c r="X53" s="13">
+        <v>13</v>
+      </c>
     </row>
     <row r="54" spans="2:33" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
@@ -4802,6 +4923,10 @@
       <c r="W54" s="17">
         <f>W52-W53</f>
         <v>-188</v>
+      </c>
+      <c r="X54" s="17">
+        <f>X52-X53</f>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="2:33" x14ac:dyDescent="0.2">
@@ -4854,12 +4979,14 @@
       <c r="V58" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="W58" s="13" t="s">
+      <c r="W58" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="X58" s="22"/>
+      <c r="X58" s="22" t="s">
+        <v>177</v>
+      </c>
       <c r="Y58" s="21" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Z58" s="21"/>
       <c r="AA58" s="21"/>
@@ -4872,53 +4999,56 @@
     </row>
     <row r="59" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B59" s="24"/>
-      <c r="W59" s="13" t="s">
+      <c r="W59" s="93" t="s">
         <v>103</v>
       </c>
       <c r="X59" s="26"/>
       <c r="Y59" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG59" s="25"/>
     </row>
     <row r="60" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B60" s="24"/>
-      <c r="W60" s="13" t="s">
+      <c r="W60" s="93" t="s">
         <v>105</v>
       </c>
       <c r="X60" s="26"/>
       <c r="Y60" s="13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AG60" s="25"/>
     </row>
     <row r="61" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B61" s="24"/>
-      <c r="W61" s="13" t="s">
+      <c r="W61" s="93" t="s">
         <v>104</v>
       </c>
       <c r="X61" s="26"/>
       <c r="Y61" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AG61" s="25"/>
     </row>
     <row r="62" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B62" s="24"/>
-      <c r="W62" s="13" t="s">
+      <c r="W62" s="93" t="s">
         <v>106</v>
       </c>
       <c r="Y62" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AG62" s="25"/>
     </row>
     <row r="63" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B63" s="24"/>
-      <c r="W63" s="13" t="s">
+      <c r="W63" s="93" t="s">
         <v>107</v>
       </c>
       <c r="X63" s="26"/>
+      <c r="Y63" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="AG63" s="25"/>
     </row>
     <row r="64" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4943,11 +5073,13 @@
       <c r="T64" s="28"/>
       <c r="U64" s="28"/>
       <c r="V64" s="28"/>
-      <c r="W64" s="28" t="s">
+      <c r="W64" s="94" t="s">
         <v>108</v>
       </c>
       <c r="X64" s="28"/>
-      <c r="Y64" s="28"/>
+      <c r="Y64" s="28" t="s">
+        <v>182</v>
+      </c>
       <c r="Z64" s="28"/>
       <c r="AA64" s="28"/>
       <c r="AB64" s="28"/>
@@ -5203,258 +5335,258 @@
     </row>
     <row r="77" spans="2:50" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="2:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="96" t="s">
+      <c r="B78" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="97"/>
-      <c r="K78" s="97"/>
-      <c r="L78" s="97"/>
-      <c r="M78" s="97"/>
-      <c r="N78" s="97"/>
-      <c r="O78" s="97"/>
-      <c r="P78" s="97"/>
-      <c r="Q78" s="97"/>
-      <c r="R78" s="97"/>
-      <c r="S78" s="98"/>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="99"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="99"/>
+      <c r="I78" s="99"/>
+      <c r="J78" s="99"/>
+      <c r="K78" s="99"/>
+      <c r="L78" s="99"/>
+      <c r="M78" s="99"/>
+      <c r="N78" s="99"/>
+      <c r="O78" s="99"/>
+      <c r="P78" s="99"/>
+      <c r="Q78" s="99"/>
+      <c r="R78" s="99"/>
+      <c r="S78" s="100"/>
     </row>
     <row r="79" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B79" s="90" t="s">
+      <c r="B79" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="C79" s="91"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="91"/>
-      <c r="G79" s="91"/>
-      <c r="H79" s="91"/>
-      <c r="I79" s="91"/>
-      <c r="J79" s="91"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="91"/>
-      <c r="M79" s="91"/>
-      <c r="N79" s="91"/>
-      <c r="O79" s="91"/>
-      <c r="P79" s="91"/>
-      <c r="Q79" s="91"/>
-      <c r="R79" s="91"/>
-      <c r="S79" s="92"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="102"/>
+      <c r="E79" s="102"/>
+      <c r="F79" s="102"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="102"/>
+      <c r="I79" s="102"/>
+      <c r="J79" s="102"/>
+      <c r="K79" s="102"/>
+      <c r="L79" s="102"/>
+      <c r="M79" s="102"/>
+      <c r="N79" s="102"/>
+      <c r="O79" s="102"/>
+      <c r="P79" s="102"/>
+      <c r="Q79" s="102"/>
+      <c r="R79" s="102"/>
+      <c r="S79" s="103"/>
     </row>
     <row r="80" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B80" s="90" t="s">
+      <c r="B80" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="C80" s="91"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="91"/>
-      <c r="H80" s="91"/>
-      <c r="I80" s="91"/>
-      <c r="J80" s="91"/>
-      <c r="K80" s="91"/>
-      <c r="L80" s="91"/>
-      <c r="M80" s="91"/>
-      <c r="N80" s="91"/>
-      <c r="O80" s="91"/>
-      <c r="P80" s="91"/>
-      <c r="Q80" s="91"/>
-      <c r="R80" s="91"/>
-      <c r="S80" s="92"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="102"/>
+      <c r="E80" s="102"/>
+      <c r="F80" s="102"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="102"/>
+      <c r="I80" s="102"/>
+      <c r="J80" s="102"/>
+      <c r="K80" s="102"/>
+      <c r="L80" s="102"/>
+      <c r="M80" s="102"/>
+      <c r="N80" s="102"/>
+      <c r="O80" s="102"/>
+      <c r="P80" s="102"/>
+      <c r="Q80" s="102"/>
+      <c r="R80" s="102"/>
+      <c r="S80" s="103"/>
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B81" s="90" t="s">
+      <c r="B81" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="91"/>
-      <c r="D81" s="91"/>
-      <c r="E81" s="91"/>
-      <c r="F81" s="91"/>
-      <c r="G81" s="91"/>
-      <c r="H81" s="91"/>
-      <c r="I81" s="91"/>
-      <c r="J81" s="91"/>
-      <c r="K81" s="91"/>
-      <c r="L81" s="91"/>
-      <c r="M81" s="91"/>
-      <c r="N81" s="91"/>
-      <c r="O81" s="91"/>
-      <c r="P81" s="91"/>
-      <c r="Q81" s="91"/>
-      <c r="R81" s="91"/>
-      <c r="S81" s="92"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="102"/>
+      <c r="E81" s="102"/>
+      <c r="F81" s="102"/>
+      <c r="G81" s="102"/>
+      <c r="H81" s="102"/>
+      <c r="I81" s="102"/>
+      <c r="J81" s="102"/>
+      <c r="K81" s="102"/>
+      <c r="L81" s="102"/>
+      <c r="M81" s="102"/>
+      <c r="N81" s="102"/>
+      <c r="O81" s="102"/>
+      <c r="P81" s="102"/>
+      <c r="Q81" s="102"/>
+      <c r="R81" s="102"/>
+      <c r="S81" s="103"/>
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B82" s="90" t="s">
+      <c r="B82" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="C82" s="91"/>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
-      <c r="G82" s="91"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="91"/>
-      <c r="J82" s="91"/>
-      <c r="K82" s="91"/>
-      <c r="L82" s="91"/>
-      <c r="M82" s="91"/>
-      <c r="N82" s="91"/>
-      <c r="O82" s="91"/>
-      <c r="P82" s="91"/>
-      <c r="Q82" s="91"/>
-      <c r="R82" s="91"/>
-      <c r="S82" s="92"/>
+      <c r="C82" s="102"/>
+      <c r="D82" s="102"/>
+      <c r="E82" s="102"/>
+      <c r="F82" s="102"/>
+      <c r="G82" s="102"/>
+      <c r="H82" s="102"/>
+      <c r="I82" s="102"/>
+      <c r="J82" s="102"/>
+      <c r="K82" s="102"/>
+      <c r="L82" s="102"/>
+      <c r="M82" s="102"/>
+      <c r="N82" s="102"/>
+      <c r="O82" s="102"/>
+      <c r="P82" s="102"/>
+      <c r="Q82" s="102"/>
+      <c r="R82" s="102"/>
+      <c r="S82" s="103"/>
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B83" s="90" t="s">
+      <c r="B83" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="C83" s="91"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="91"/>
-      <c r="G83" s="91"/>
-      <c r="H83" s="91"/>
-      <c r="I83" s="91"/>
-      <c r="J83" s="91"/>
-      <c r="K83" s="91"/>
-      <c r="L83" s="91"/>
-      <c r="M83" s="91"/>
-      <c r="N83" s="91"/>
-      <c r="O83" s="91"/>
-      <c r="P83" s="91"/>
-      <c r="Q83" s="91"/>
-      <c r="R83" s="91"/>
-      <c r="S83" s="92"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="102"/>
+      <c r="E83" s="102"/>
+      <c r="F83" s="102"/>
+      <c r="G83" s="102"/>
+      <c r="H83" s="102"/>
+      <c r="I83" s="102"/>
+      <c r="J83" s="102"/>
+      <c r="K83" s="102"/>
+      <c r="L83" s="102"/>
+      <c r="M83" s="102"/>
+      <c r="N83" s="102"/>
+      <c r="O83" s="102"/>
+      <c r="P83" s="102"/>
+      <c r="Q83" s="102"/>
+      <c r="R83" s="102"/>
+      <c r="S83" s="103"/>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B84" s="90" t="s">
+      <c r="B84" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="C84" s="91"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="91"/>
-      <c r="G84" s="91"/>
-      <c r="H84" s="91"/>
-      <c r="I84" s="91"/>
-      <c r="J84" s="91"/>
-      <c r="K84" s="91"/>
-      <c r="L84" s="91"/>
-      <c r="M84" s="91"/>
-      <c r="N84" s="91"/>
-      <c r="O84" s="91"/>
-      <c r="P84" s="91"/>
-      <c r="Q84" s="91"/>
-      <c r="R84" s="91"/>
-      <c r="S84" s="92"/>
+      <c r="C84" s="102"/>
+      <c r="D84" s="102"/>
+      <c r="E84" s="102"/>
+      <c r="F84" s="102"/>
+      <c r="G84" s="102"/>
+      <c r="H84" s="102"/>
+      <c r="I84" s="102"/>
+      <c r="J84" s="102"/>
+      <c r="K84" s="102"/>
+      <c r="L84" s="102"/>
+      <c r="M84" s="102"/>
+      <c r="N84" s="102"/>
+      <c r="O84" s="102"/>
+      <c r="P84" s="102"/>
+      <c r="Q84" s="102"/>
+      <c r="R84" s="102"/>
+      <c r="S84" s="103"/>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B85" s="90"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="91"/>
-      <c r="E85" s="91"/>
-      <c r="F85" s="91"/>
-      <c r="G85" s="91"/>
-      <c r="H85" s="91"/>
-      <c r="I85" s="91"/>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
-      <c r="M85" s="91"/>
-      <c r="N85" s="91"/>
-      <c r="O85" s="91"/>
-      <c r="P85" s="91"/>
-      <c r="Q85" s="91"/>
-      <c r="R85" s="91"/>
-      <c r="S85" s="92"/>
+      <c r="B85" s="101"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="102"/>
+      <c r="E85" s="102"/>
+      <c r="F85" s="102"/>
+      <c r="G85" s="102"/>
+      <c r="H85" s="102"/>
+      <c r="I85" s="102"/>
+      <c r="J85" s="102"/>
+      <c r="K85" s="102"/>
+      <c r="L85" s="102"/>
+      <c r="M85" s="102"/>
+      <c r="N85" s="102"/>
+      <c r="O85" s="102"/>
+      <c r="P85" s="102"/>
+      <c r="Q85" s="102"/>
+      <c r="R85" s="102"/>
+      <c r="S85" s="103"/>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B86" s="90"/>
-      <c r="C86" s="91"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="91"/>
-      <c r="F86" s="91"/>
-      <c r="G86" s="91"/>
-      <c r="H86" s="91"/>
-      <c r="I86" s="91"/>
-      <c r="J86" s="91"/>
-      <c r="K86" s="91"/>
-      <c r="L86" s="91"/>
-      <c r="M86" s="91"/>
-      <c r="N86" s="91"/>
-      <c r="O86" s="91"/>
-      <c r="P86" s="91"/>
-      <c r="Q86" s="91"/>
-      <c r="R86" s="91"/>
-      <c r="S86" s="92"/>
+      <c r="B86" s="101"/>
+      <c r="C86" s="102"/>
+      <c r="D86" s="102"/>
+      <c r="E86" s="102"/>
+      <c r="F86" s="102"/>
+      <c r="G86" s="102"/>
+      <c r="H86" s="102"/>
+      <c r="I86" s="102"/>
+      <c r="J86" s="102"/>
+      <c r="K86" s="102"/>
+      <c r="L86" s="102"/>
+      <c r="M86" s="102"/>
+      <c r="N86" s="102"/>
+      <c r="O86" s="102"/>
+      <c r="P86" s="102"/>
+      <c r="Q86" s="102"/>
+      <c r="R86" s="102"/>
+      <c r="S86" s="103"/>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B87" s="90"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="91"/>
-      <c r="E87" s="91"/>
-      <c r="F87" s="91"/>
-      <c r="G87" s="91"/>
-      <c r="H87" s="91"/>
-      <c r="I87" s="91"/>
-      <c r="J87" s="91"/>
-      <c r="K87" s="91"/>
-      <c r="L87" s="91"/>
-      <c r="M87" s="91"/>
-      <c r="N87" s="91"/>
-      <c r="O87" s="91"/>
-      <c r="P87" s="91"/>
-      <c r="Q87" s="91"/>
-      <c r="R87" s="91"/>
-      <c r="S87" s="92"/>
+      <c r="B87" s="101"/>
+      <c r="C87" s="102"/>
+      <c r="D87" s="102"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="102"/>
+      <c r="G87" s="102"/>
+      <c r="H87" s="102"/>
+      <c r="I87" s="102"/>
+      <c r="J87" s="102"/>
+      <c r="K87" s="102"/>
+      <c r="L87" s="102"/>
+      <c r="M87" s="102"/>
+      <c r="N87" s="102"/>
+      <c r="O87" s="102"/>
+      <c r="P87" s="102"/>
+      <c r="Q87" s="102"/>
+      <c r="R87" s="102"/>
+      <c r="S87" s="103"/>
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B88" s="90"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="91"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="91"/>
-      <c r="H88" s="91"/>
-      <c r="I88" s="91"/>
-      <c r="J88" s="91"/>
-      <c r="K88" s="91"/>
-      <c r="L88" s="91"/>
-      <c r="M88" s="91"/>
-      <c r="N88" s="91"/>
-      <c r="O88" s="91"/>
-      <c r="P88" s="91"/>
-      <c r="Q88" s="91"/>
-      <c r="R88" s="91"/>
-      <c r="S88" s="92"/>
+      <c r="B88" s="101"/>
+      <c r="C88" s="102"/>
+      <c r="D88" s="102"/>
+      <c r="E88" s="102"/>
+      <c r="F88" s="102"/>
+      <c r="G88" s="102"/>
+      <c r="H88" s="102"/>
+      <c r="I88" s="102"/>
+      <c r="J88" s="102"/>
+      <c r="K88" s="102"/>
+      <c r="L88" s="102"/>
+      <c r="M88" s="102"/>
+      <c r="N88" s="102"/>
+      <c r="O88" s="102"/>
+      <c r="P88" s="102"/>
+      <c r="Q88" s="102"/>
+      <c r="R88" s="102"/>
+      <c r="S88" s="103"/>
     </row>
     <row r="89" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="93"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="94"/>
-      <c r="E89" s="94"/>
-      <c r="F89" s="94"/>
-      <c r="G89" s="94"/>
-      <c r="H89" s="94"/>
-      <c r="I89" s="94"/>
-      <c r="J89" s="94"/>
-      <c r="K89" s="94"/>
-      <c r="L89" s="94"/>
-      <c r="M89" s="94"/>
-      <c r="N89" s="94"/>
-      <c r="O89" s="94"/>
-      <c r="P89" s="94"/>
-      <c r="Q89" s="94"/>
-      <c r="R89" s="94"/>
-      <c r="S89" s="95"/>
+      <c r="B89" s="95"/>
+      <c r="C89" s="96"/>
+      <c r="D89" s="96"/>
+      <c r="E89" s="96"/>
+      <c r="F89" s="96"/>
+      <c r="G89" s="96"/>
+      <c r="H89" s="96"/>
+      <c r="I89" s="96"/>
+      <c r="J89" s="96"/>
+      <c r="K89" s="96"/>
+      <c r="L89" s="96"/>
+      <c r="M89" s="96"/>
+      <c r="N89" s="96"/>
+      <c r="O89" s="96"/>
+      <c r="P89" s="96"/>
+      <c r="Q89" s="96"/>
+      <c r="R89" s="96"/>
+      <c r="S89" s="97"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -5486,7 +5618,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5671,6 +5803,9 @@
       <c r="R3">
         <v>219</v>
       </c>
+      <c r="S3">
+        <v>217</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -5726,6 +5861,9 @@
       </c>
       <c r="R4">
         <v>711</v>
+      </c>
+      <c r="S4">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -5920,7 +6058,7 @@
         <v>138</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>139</v>
@@ -6098,12 +6236,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -6247,7 +6379,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6256,23 +6388,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6290,10 +6412,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Mid Tier Luxury/CPRI_MODEL.xlsx
+++ b/Mid Tier Luxury/CPRI_MODEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\Mid Tier Luxury\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D35E99D-F9C7-4EF4-ACF4-98A3770146B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C1D17A-8A45-40C4-8FC5-B3526C772875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="185">
   <si>
     <t>Price</t>
   </si>
@@ -681,6 +681,12 @@
   </si>
   <si>
     <t>Operating margin in high single digit range for Michael Kors</t>
+  </si>
+  <si>
+    <t>9.45x</t>
+  </si>
+  <si>
+    <t>Went Private</t>
   </si>
 </sst>
 </file>
@@ -691,13 +697,19 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -801,6 +813,21 @@
     <font>
       <i/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -952,126 +979,139 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="14" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="14" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="13" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="14" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="13" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="13" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1411,7 +1451,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1442,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="13">
-        <v>16.989999999999998</v>
+        <v>21.2</v>
       </c>
       <c r="C4" s="14">
-        <v>45872</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1455,8 +1495,8 @@
       <c r="B5" s="13">
         <v>118</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>4</v>
+      <c r="C5" s="104" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1465,7 +1505,7 @@
       </c>
       <c r="B6" s="13">
         <f xml:space="preserve"> B4 * B5</f>
-        <v>2004.8199999999997</v>
+        <v>2501.6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1496,7 +1536,7 @@
       </c>
       <c r="B9" s="13">
         <f>B6 - B7 + B8</f>
-        <v>4938.82</v>
+        <v>5435.6</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>28</v>
@@ -1515,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AX89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+    <sheetView topLeftCell="E13" workbookViewId="0">
       <selection activeCell="AB53" sqref="AB53"/>
     </sheetView>
   </sheetViews>
@@ -5981,8 +6021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD6AACC-FEA2-4C5B-AF79-59D39A66A975}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6055,7 +6095,7 @@
         <v>173</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="I2" s="31" t="s">
         <v>176</v>
@@ -6198,37 +6238,39 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="107">
         <v>0.434</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="32"/>
+      <c r="K7" s="108" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6236,6 +6278,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -6379,15 +6430,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6395,6 +6437,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6408,14 +6458,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
